--- a/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
+++ b/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -820,16 +820,16 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G10" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -850,7 +850,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G11" s="9" t="n">
@@ -880,22 +880,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G12" s="5" t="n">
@@ -920,17 +920,17 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G13" s="9" t="n">
@@ -950,22 +950,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -980,12 +980,12 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G15" s="9" t="n">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G17" s="9" t="n">
@@ -1090,22 +1090,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
@@ -1125,17 +1125,17 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G21" s="9" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
@@ -1265,22 +1265,22 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G23" s="9" t="n">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
@@ -1345,16 +1345,16 @@
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G25" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -1405,17 +1405,17 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G29" s="9" t="n">
@@ -1505,27 +1505,27 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G30" s="5" t="n">
@@ -1540,31 +1540,31 @@
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G31" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G32" s="5" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G33" s="9" t="n">
@@ -1650,22 +1650,22 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G34" s="5" t="n">
@@ -1685,22 +1685,22 @@
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G35" s="9" t="n">
@@ -1720,22 +1720,22 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G36" s="5" t="n">
@@ -1755,22 +1755,22 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G37" s="9" t="n">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G38" s="5" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G39" s="9" t="n">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -1870,12 +1870,12 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
@@ -1905,16 +1905,16 @@
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G41" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -1940,12 +1940,12 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
@@ -1995,27 +1995,27 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G44" s="5" t="n">
@@ -2030,27 +2030,27 @@
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G45" s="9" t="n">
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G46" s="5" t="n">
@@ -2100,12 +2100,12 @@
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
@@ -2115,16 +2115,16 @@
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G47" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G48" s="5" t="n">
@@ -2175,22 +2175,22 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G49" s="9" t="n">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G50" s="5" t="n">
@@ -2245,22 +2245,22 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G51" s="9" t="n">
@@ -2280,22 +2280,22 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
@@ -2315,22 +2315,22 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G53" s="9" t="n">
@@ -2350,22 +2350,22 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G54" s="5" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G55" s="9" t="n">
@@ -2415,27 +2415,27 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
@@ -2450,31 +2450,31 @@
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G57" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -2485,27 +2485,27 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
@@ -2520,22 +2520,22 @@
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
@@ -2555,27 +2555,27 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G60" s="5" t="n">
@@ -2590,27 +2590,27 @@
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G61" s="9" t="n">
@@ -2625,27 +2625,27 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G62" s="5" t="n">
@@ -2660,22 +2660,22 @@
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="G63" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D65" s="6" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G65" s="9" t="n">
@@ -2770,17 +2770,17 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -2805,17 +2805,17 @@
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
@@ -2840,22 +2840,22 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G69" s="9" t="n">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
@@ -2940,27 +2940,27 @@
       </c>
       <c r="B71" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D71" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G71" s="9" t="n">
@@ -2975,12 +2975,12 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="G72" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -3010,27 +3010,27 @@
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F73" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G73" s="9" t="n">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
@@ -3080,22 +3080,22 @@
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F75" s="8" t="inlineStr">
@@ -3115,27 +3115,27 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G76" s="5" t="n">
@@ -3150,12 +3150,12 @@
       </c>
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D77" s="6" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F77" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G77" s="9" t="n">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -3200,16 +3200,16 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G78" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D79" s="6" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="E79" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F79" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G79" s="9" t="n">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -3270,12 +3270,12 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G80" s="5" t="n">
@@ -3295,17 +3295,17 @@
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D81" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F81" s="8" t="inlineStr">
@@ -3325,12 +3325,12 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
@@ -3360,12 +3360,12 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D83" s="6" t="inlineStr">
@@ -3375,12 +3375,12 @@
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F83" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G83" s="9" t="n">
@@ -3395,22 +3395,22 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
@@ -3430,22 +3430,22 @@
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D85" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F85" s="8" t="inlineStr">
@@ -3465,22 +3465,22 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
@@ -3500,12 +3500,12 @@
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D87" s="6" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F87" s="8" t="inlineStr">
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G87" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G88" s="5" t="n">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D89" s="6" t="inlineStr">
@@ -3585,12 +3585,12 @@
       </c>
       <c r="E89" s="7" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F89" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G89" s="9" t="n">
@@ -3605,12 +3605,12 @@
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -3620,12 +3620,12 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G90" s="5" t="n">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D91" s="6" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="F91" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G91" s="9" t="n">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -3690,12 +3690,12 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G92" s="5" t="n">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="B93" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D93" s="6" t="inlineStr">
@@ -3725,16 +3725,16 @@
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F93" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G93" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
@@ -3790,17 +3790,17 @@
       </c>
       <c r="D95" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F95" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G95" s="9" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
@@ -3850,27 +3850,27 @@
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D97" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F97" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G97" s="9" t="n">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G98" s="5" t="n">
@@ -3920,27 +3920,27 @@
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D99" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E99" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F99" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G99" s="9" t="n">
@@ -3955,12 +3955,12 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -3970,12 +3970,12 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G100" s="5" t="n">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C101" s="6" t="inlineStr">
@@ -4000,17 +4000,17 @@
       </c>
       <c r="D101" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E101" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F101" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G101" s="9" t="n">
@@ -4025,31 +4025,31 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G102" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D103" s="6" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="E103" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F103" s="8" t="inlineStr">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G103" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
@@ -4130,22 +4130,22 @@
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D105" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F105" s="8" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -4175,17 +4175,17 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G106" s="5" t="n">
@@ -4200,27 +4200,27 @@
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D107" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E107" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F107" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G107" s="9" t="n">
@@ -4235,31 +4235,556 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>biochemistry lab/cbl</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>biochemistry lab/cbl</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>histology</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>microbiology</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>microbiology</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>parasitology sgd/pos</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>pathology lab/museum</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>pathology lab/museum</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>pharmacology</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>pharmacology</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>physiology</t>
         </is>
       </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E108" s="3" t="inlineStr">
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
         <is>
           <t>13/11/2025</t>
         </is>
       </c>
-      <c r="F108" s="4" t="inlineStr">
+      <c r="F122" s="4" t="inlineStr">
         <is>
           <t>08:00:00</t>
         </is>
       </c>
-      <c r="G108" s="5" t="n">
-        <v>120</v>
+      <c r="G122" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
+++ b/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,17 +530,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -565,26 +565,26 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="G3" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -600,26 +600,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G4" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G5" s="9" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G6" s="5" t="n">
@@ -705,22 +705,22 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G7" s="9" t="n">
@@ -740,22 +740,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G8" s="5" t="n">
@@ -775,22 +775,22 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G9" s="9" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -820,16 +820,16 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G10" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -845,22 +845,22 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G11" s="9" t="n">
@@ -880,22 +880,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G12" s="5" t="n">
@@ -915,7 +915,7 @@
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G13" s="9" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G15" s="9" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G17" s="9" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
@@ -1125,26 +1125,26 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G19" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1170,16 +1170,16 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -1195,22 +1195,22 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G21" s="9" t="n">
@@ -1230,22 +1230,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
@@ -1265,22 +1265,22 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G23" s="9" t="n">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G25" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1450,12 +1450,12 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
@@ -1475,17 +1475,17 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -1510,17 +1510,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -1545,26 +1545,26 @@
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G31" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -1575,27 +1575,27 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G32" s="5" t="n">
@@ -1610,27 +1610,27 @@
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G33" s="9" t="n">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -1660,12 +1660,12 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G34" s="5" t="n">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="G35" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -1730,16 +1730,16 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G36" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -1755,17 +1755,17 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -1825,22 +1825,22 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G39" s="9" t="n">
@@ -1860,22 +1860,22 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
@@ -1905,16 +1905,16 @@
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G41" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1930,22 +1930,22 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
@@ -1965,22 +1965,22 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G43" s="9" t="n">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2010,12 +2010,12 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G44" s="5" t="n">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G45" s="9" t="n">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G46" s="5" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
@@ -2115,16 +2115,16 @@
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G47" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G48" s="5" t="n">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D49" s="6" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G49" s="9" t="n">
@@ -2205,27 +2205,27 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G50" s="5" t="n">
@@ -2245,22 +2245,22 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G51" s="9" t="n">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -2290,16 +2290,16 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
@@ -2315,26 +2315,26 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G53" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G54" s="5" t="n">
@@ -2385,22 +2385,22 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G55" s="9" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
@@ -2455,17 +2455,17 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="G57" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G59" s="9" t="n">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
@@ -2595,22 +2595,22 @@
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G61" s="9" t="n">
@@ -2630,22 +2630,22 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G62" s="5" t="n">
@@ -2665,26 +2665,26 @@
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G63" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
@@ -2695,27 +2695,27 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
@@ -2730,27 +2730,27 @@
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D65" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G65" s="9" t="n">
@@ -2765,27 +2765,27 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G66" s="5" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G67" s="9" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
@@ -2885,16 +2885,16 @@
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G69" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
@@ -2910,26 +2910,26 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D71" s="6" t="inlineStr">
@@ -2955,12 +2955,12 @@
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G71" s="9" t="n">
@@ -2980,26 +2980,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G72" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
@@ -3015,17 +3015,17 @@
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F73" s="8" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G74" s="5" t="n">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E75" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F75" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G75" s="9" t="n">
@@ -3120,22 +3120,22 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G76" s="5" t="n">
@@ -3155,22 +3155,22 @@
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D77" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F77" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G77" s="9" t="n">
@@ -3190,26 +3190,26 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G78" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D79" s="6" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="E79" s="7" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F79" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G79" s="9" t="n">
@@ -3255,12 +3255,12 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -3270,12 +3270,12 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G80" s="5" t="n">
@@ -3290,27 +3290,27 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D81" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F81" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G81" s="9" t="n">
@@ -3325,27 +3325,27 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G82" s="5" t="n">
@@ -3360,22 +3360,22 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D83" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F83" s="8" t="inlineStr">
@@ -3400,22 +3400,22 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G84" s="5" t="n">
@@ -3435,26 +3435,26 @@
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D85" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F85" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G85" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -3480,16 +3480,16 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G86" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D87" s="6" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F87" s="8" t="inlineStr">
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="G87" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
@@ -3540,22 +3540,22 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G88" s="5" t="n">
@@ -3575,22 +3575,22 @@
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D89" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E89" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F89" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G89" s="9" t="n">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -3620,12 +3620,12 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G90" s="5" t="n">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D91" s="6" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E91" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F91" s="8" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -3690,12 +3690,12 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G92" s="5" t="n">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D93" s="6" t="inlineStr">
@@ -3725,16 +3725,16 @@
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F93" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G93" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G94" s="5" t="n">
@@ -3780,27 +3780,27 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D95" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F95" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G95" s="9" t="n">
@@ -3815,27 +3815,27 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G96" s="5" t="n">
@@ -3850,12 +3850,12 @@
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D97" s="6" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F97" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G97" s="9" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
@@ -3900,12 +3900,12 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G98" s="5" t="n">
@@ -3920,12 +3920,12 @@
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D99" s="6" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="E99" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F99" s="8" t="inlineStr">
@@ -3965,17 +3965,17 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G100" s="5" t="n">
@@ -3995,17 +3995,17 @@
       </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D101" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E101" s="7" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F101" s="8" t="inlineStr">
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G101" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G102" s="5" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D103" s="6" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="E103" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F103" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G103" s="9" t="n">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
@@ -4110,12 +4110,12 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G104" s="5" t="n">
@@ -4135,22 +4135,22 @@
       </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D105" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F105" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G105" s="9" t="n">
@@ -4170,17 +4170,17 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D107" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E107" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F107" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G107" s="9" t="n">
@@ -4240,26 +4240,26 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G108" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
@@ -4270,12 +4270,12 @@
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C109" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D109" s="6" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="E109" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F109" s="8" t="inlineStr">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
@@ -4340,27 +4340,27 @@
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C111" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D111" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F111" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G111" s="9" t="n">
@@ -4375,22 +4375,22 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
@@ -4410,27 +4410,27 @@
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D113" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E113" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F113" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G113" s="9" t="n">
@@ -4445,27 +4445,27 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G114" s="5" t="n">
@@ -4480,12 +4480,12 @@
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>B4</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C115" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D115" s="6" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
@@ -4600,16 +4600,16 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G118" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119">
@@ -4625,22 +4625,22 @@
       </c>
       <c r="C119" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D119" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E119" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F119" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G119" s="9" t="n">
@@ -4660,17 +4660,17 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
@@ -4695,22 +4695,22 @@
       </c>
       <c r="C121" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D121" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E121" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F121" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G121" s="9" t="n">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G122" s="5" t="n">
@@ -4765,26 +4765,306 @@
       </c>
       <c r="C123" s="6" t="inlineStr">
         <is>
+          <t>biochemistry lab/cbl</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>18/11/2025</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>histology</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>microbiology</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>microbiology</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>pathology lab/museum</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>pathology lab/museum</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>pharmacology</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>pharmacology</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 2</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
           <t>physiology</t>
         </is>
       </c>
-      <c r="D123" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E123" s="7" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="F123" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G123" s="9" t="n">
-        <v>90</v>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
+++ b/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,17 +530,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -565,26 +565,26 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G3" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -600,26 +600,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G4" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G5" s="9" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G6" s="5" t="n">
@@ -705,22 +705,22 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G7" s="9" t="n">
@@ -740,22 +740,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G8" s="5" t="n">
@@ -775,22 +775,22 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G9" s="9" t="n">
@@ -810,22 +810,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G10" s="5" t="n">
@@ -845,12 +845,12 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
@@ -860,11 +860,11 @@
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="G11" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -880,7 +880,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G12" s="5" t="n">
@@ -920,7 +920,7 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G13" s="9" t="n">
@@ -950,22 +950,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -990,17 +990,17 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G15" s="9" t="n">
@@ -1020,22 +1020,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
@@ -1058,23 +1058,21 @@
           <t>physiology</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D17" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G17" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -1090,17 +1088,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -1125,26 +1123,26 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G19" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -1160,26 +1158,26 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
@@ -1195,7 +1193,7 @@
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
@@ -1205,12 +1203,12 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G21" s="9" t="n">
@@ -1230,7 +1228,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1240,7 +1238,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -1265,22 +1263,22 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G23" s="9" t="n">
@@ -1300,22 +1298,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
@@ -1335,22 +1333,22 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G25" s="9" t="n">
@@ -1370,22 +1368,22 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G26" s="5" t="n">
@@ -1405,12 +1403,12 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
@@ -1420,11 +1418,11 @@
       </c>
       <c r="F27" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G27" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -1440,7 +1438,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1450,12 +1448,12 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
@@ -1480,7 +1478,7 @@
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
@@ -1490,7 +1488,7 @@
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G29" s="9" t="n">
@@ -1510,22 +1508,22 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G30" s="5" t="n">
@@ -1550,17 +1548,17 @@
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G31" s="9" t="n">
@@ -1580,22 +1578,22 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G32" s="5" t="n">
@@ -1618,23 +1616,21 @@
           <t>physiology</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D33" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G33" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -1650,22 +1646,22 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G34" s="5" t="n">
@@ -1685,26 +1681,26 @@
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G35" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -1720,26 +1716,26 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G36" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -1760,12 +1756,12 @@
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
@@ -1790,17 +1786,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -1825,7 +1821,7 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
@@ -1835,12 +1831,12 @@
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G39" s="9" t="n">
@@ -1860,22 +1856,22 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
@@ -1895,7 +1891,7 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
@@ -1910,7 +1906,7 @@
       </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G41" s="9" t="n">
@@ -1930,7 +1926,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -1940,12 +1936,12 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
@@ -1965,7 +1961,7 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
@@ -1975,16 +1971,16 @@
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G43" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -2000,7 +1996,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2010,12 +2006,12 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G44" s="5" t="n">
@@ -2035,7 +2031,7 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
@@ -2045,7 +2041,7 @@
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
@@ -2070,7 +2066,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -2080,7 +2076,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
@@ -2105,7 +2101,7 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
@@ -2120,7 +2116,7 @@
       </c>
       <c r="F47" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G47" s="9" t="n">
@@ -2140,7 +2136,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -2150,12 +2146,12 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G48" s="5" t="n">
@@ -2175,26 +2171,24 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G49" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -2205,12 +2199,12 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -2220,7 +2214,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
@@ -2245,7 +2239,7 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D51" s="6" t="inlineStr">
@@ -2255,12 +2249,12 @@
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G51" s="9" t="n">
@@ -2280,26 +2274,26 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -2315,26 +2309,26 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G53" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -2350,7 +2344,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -2360,12 +2354,12 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G54" s="5" t="n">
@@ -2385,7 +2379,7 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr">
@@ -2395,12 +2389,12 @@
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G55" s="9" t="n">
@@ -2420,22 +2414,22 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
@@ -2455,22 +2449,22 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G57" s="9" t="n">
@@ -2490,22 +2484,22 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
@@ -2525,26 +2519,26 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G59" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
@@ -2560,7 +2554,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -2570,7 +2564,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
@@ -2595,17 +2589,17 @@
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
@@ -2630,22 +2624,22 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G62" s="5" t="n">
@@ -2665,12 +2659,12 @@
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr">
@@ -2680,7 +2674,7 @@
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G63" s="9" t="n">
@@ -2700,22 +2694,22 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
@@ -2735,26 +2729,24 @@
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G65" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
@@ -2765,27 +2757,27 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G66" s="5" t="n">
@@ -2800,27 +2792,27 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G67" s="9" t="n">
@@ -2840,22 +2832,22 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
@@ -2875,7 +2867,7 @@
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
@@ -2885,16 +2877,16 @@
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G69" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
@@ -2910,26 +2902,26 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
@@ -2945,7 +2937,7 @@
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D71" s="6" t="inlineStr">
@@ -2955,12 +2947,12 @@
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G71" s="9" t="n">
@@ -2980,7 +2972,7 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -2990,12 +2982,12 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G72" s="5" t="n">
@@ -3015,12 +3007,12 @@
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
@@ -3030,7 +3022,7 @@
       </c>
       <c r="F73" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G73" s="9" t="n">
@@ -3050,22 +3042,22 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G74" s="5" t="n">
@@ -3085,26 +3077,26 @@
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F75" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G75" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
@@ -3120,7 +3112,7 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -3130,7 +3122,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -3155,7 +3147,7 @@
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D77" s="6" t="inlineStr">
@@ -3165,7 +3157,7 @@
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F77" s="8" t="inlineStr">
@@ -3190,7 +3182,7 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -3200,12 +3192,12 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G78" s="5" t="n">
@@ -3225,22 +3217,22 @@
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D79" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E79" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F79" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G79" s="9" t="n">
@@ -3260,22 +3252,22 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G80" s="5" t="n">
@@ -3295,26 +3287,24 @@
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D81" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F81" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="G81" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
@@ -3325,22 +3315,22 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
@@ -3360,27 +3350,27 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D83" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F83" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G83" s="9" t="n">
@@ -3400,22 +3390,22 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G84" s="5" t="n">
@@ -3435,7 +3425,7 @@
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D85" s="6" t="inlineStr">
@@ -3445,16 +3435,16 @@
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F85" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G85" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
@@ -3470,26 +3460,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G86" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
@@ -3505,7 +3495,7 @@
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D87" s="6" t="inlineStr">
@@ -3515,12 +3505,12 @@
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F87" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G87" s="9" t="n">
@@ -3540,7 +3530,7 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
@@ -3550,12 +3540,12 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G88" s="5" t="n">
@@ -3575,22 +3565,22 @@
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D89" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E89" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F89" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G89" s="9" t="n">
@@ -3610,22 +3600,22 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G90" s="5" t="n">
@@ -3645,26 +3635,26 @@
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D91" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E91" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F91" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G91" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
@@ -3680,7 +3670,7 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -3690,7 +3680,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
@@ -3715,7 +3705,7 @@
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D93" s="6" t="inlineStr">
@@ -3725,7 +3715,7 @@
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F93" s="8" t="inlineStr">
@@ -3750,7 +3740,7 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -3760,12 +3750,12 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G94" s="5" t="n">
@@ -3785,22 +3775,22 @@
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D95" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F95" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G95" s="9" t="n">
@@ -3820,22 +3810,22 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G96" s="5" t="n">
@@ -3855,26 +3845,24 @@
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F97" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G97" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
@@ -3885,22 +3873,22 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
@@ -3920,27 +3908,27 @@
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D99" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E99" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F99" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G99" s="9" t="n">
@@ -3960,17 +3948,17 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
@@ -3995,7 +3983,7 @@
       </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D101" s="6" t="inlineStr">
@@ -4005,16 +3993,16 @@
       </c>
       <c r="E101" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F101" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G101" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
@@ -4030,26 +4018,26 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G102" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
@@ -4065,7 +4053,7 @@
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D103" s="6" t="inlineStr">
@@ -4080,7 +4068,7 @@
       </c>
       <c r="F103" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G103" s="9" t="n">
@@ -4100,22 +4088,22 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G104" s="5" t="n">
@@ -4135,17 +4123,17 @@
       </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D105" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F105" s="8" t="inlineStr">
@@ -4170,7 +4158,7 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
@@ -4180,16 +4168,16 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G106" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
@@ -4205,17 +4193,17 @@
       </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D107" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E107" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F107" s="8" t="inlineStr">
@@ -4240,22 +4228,22 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G108" s="5" t="n">
@@ -4275,7 +4263,7 @@
       </c>
       <c r="C109" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D109" s="6" t="inlineStr">
@@ -4285,12 +4273,12 @@
       </c>
       <c r="E109" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F109" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G109" s="9" t="n">
@@ -4310,7 +4298,7 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -4320,12 +4308,12 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G110" s="5" t="n">
@@ -4345,7 +4333,7 @@
       </c>
       <c r="C111" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D111" s="6" t="inlineStr">
@@ -4355,12 +4343,12 @@
       </c>
       <c r="E111" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F111" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G111" s="9" t="n">
@@ -4380,26 +4368,24 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G112" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
@@ -4410,12 +4396,12 @@
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D113" s="6" t="inlineStr">
@@ -4425,12 +4411,12 @@
       </c>
       <c r="E113" s="7" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F113" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G113" s="9" t="n">
@@ -4445,12 +4431,12 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
@@ -4460,12 +4446,12 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G114" s="5" t="n">
@@ -4480,22 +4466,22 @@
       </c>
       <c r="B115" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C115" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D115" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E115" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F115" s="8" t="inlineStr">
@@ -4520,22 +4506,22 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G116" s="5" t="n">
@@ -4555,26 +4541,26 @@
       </c>
       <c r="C117" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D117" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E117" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F117" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G117" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118">
@@ -4590,7 +4576,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
@@ -4600,16 +4586,16 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G118" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
@@ -4625,7 +4611,7 @@
       </c>
       <c r="C119" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D119" s="6" t="inlineStr">
@@ -4635,12 +4621,12 @@
       </c>
       <c r="E119" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F119" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G119" s="9" t="n">
@@ -4660,7 +4646,7 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
@@ -4670,12 +4656,12 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G120" s="5" t="n">
@@ -4695,26 +4681,26 @@
       </c>
       <c r="C121" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D121" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E121" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F121" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G121" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122">
@@ -4730,7 +4716,7 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
@@ -4740,7 +4726,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
@@ -4765,7 +4751,7 @@
       </c>
       <c r="C123" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D123" s="6" t="inlineStr">
@@ -4775,12 +4761,12 @@
       </c>
       <c r="E123" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F123" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G123" s="9" t="n">
@@ -4800,7 +4786,7 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
@@ -4810,12 +4796,12 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G124" s="5" t="n">
@@ -4835,22 +4821,22 @@
       </c>
       <c r="C125" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D125" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E125" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F125" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G125" s="9" t="n">
@@ -4870,22 +4856,22 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G126" s="5" t="n">
@@ -4905,166 +4891,24 @@
       </c>
       <c r="C127" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
-        </is>
-      </c>
-      <c r="D127" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E127" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F127" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G127" s="9" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>pathology lab/museum</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E128" s="3" t="inlineStr">
-        <is>
-          <t>19/11/2025</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G128" s="5" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="6" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C129" s="6" t="inlineStr">
-        <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D129" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E129" s="7" t="inlineStr">
-        <is>
-          <t>04/11/2025</t>
-        </is>
-      </c>
-      <c r="F129" s="8" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="G129" s="9" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="F130" s="4" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="G130" s="5" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="6" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B131" s="6" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C131" s="6" t="inlineStr">
-        <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D131" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E131" s="7" t="inlineStr">
-        <is>
-          <t>13/11/2025</t>
-        </is>
-      </c>
-      <c r="F131" s="8" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="G131" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
+++ b/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,22 +740,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G8" s="5" t="n">
@@ -780,17 +780,17 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G9" s="9" t="n">
@@ -810,12 +810,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -825,11 +825,11 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="G10" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -845,7 +845,7 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
@@ -855,16 +855,16 @@
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G11" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -885,7 +885,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G12" s="5" t="n">
@@ -915,22 +915,22 @@
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G13" s="9" t="n">
@@ -955,17 +955,17 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -985,22 +985,22 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G15" s="9" t="n">
@@ -1023,23 +1023,21 @@
           <t>physiology</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D16" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -1050,29 +1048,31 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>2</v>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G17" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
@@ -1158,22 +1158,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
@@ -1198,17 +1198,17 @@
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G21" s="9" t="n">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G22" s="5" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G23" s="9" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
@@ -1343,16 +1343,16 @@
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G25" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G26" s="5" t="n">
@@ -1403,26 +1403,26 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G27" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G28" s="5" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G29" s="9" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G30" s="5" t="n">
@@ -1543,13 +1543,11 @@
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D31" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
@@ -1558,11 +1556,11 @@
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G31" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1573,12 +1571,12 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -1588,7 +1586,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -1608,20 +1606,22 @@
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="C33" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>2</v>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="G33" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G34" s="5" t="n">
@@ -1686,17 +1686,17 @@
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G35" s="9" t="n">
@@ -1716,22 +1716,22 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G36" s="5" t="n">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F37" s="8" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -1821,22 +1821,22 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G39" s="9" t="n">
@@ -1856,22 +1856,22 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
@@ -1901,16 +1901,16 @@
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G41" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
@@ -1926,22 +1926,22 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G42" s="5" t="n">
@@ -1961,26 +1961,26 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G43" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F45" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G45" s="9" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G46" s="5" t="n">
@@ -2101,26 +2101,24 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G47" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
@@ -2131,12 +2129,12 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -2146,7 +2144,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
@@ -2166,29 +2164,31 @@
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="n">
-        <v>2</v>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G49" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>26/10/2025</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G50" s="5" t="n">
@@ -2244,17 +2244,17 @@
       </c>
       <c r="D51" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F51" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G51" s="9" t="n">
@@ -2274,22 +2274,22 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>26/10/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
@@ -2309,17 +2309,17 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
@@ -2379,22 +2379,22 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D55" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G55" s="9" t="n">
@@ -2414,22 +2414,22 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G56" s="5" t="n">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D57" s="6" t="inlineStr">
@@ -2459,16 +2459,16 @@
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F57" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G57" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -2484,22 +2484,22 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
@@ -2519,26 +2519,26 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D59" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G59" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C61" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D61" s="6" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F61" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G61" s="9" t="n">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G62" s="5" t="n">
@@ -2659,26 +2659,24 @@
       </c>
       <c r="C63" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D63" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E63" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G63" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -2689,12 +2687,12 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -2704,12 +2702,12 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G64" s="5" t="n">
@@ -2724,29 +2722,31 @@
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>2</v>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G65" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -2767,17 +2767,17 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G66" s="5" t="n">
@@ -2797,17 +2797,17 @@
       </c>
       <c r="C67" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
@@ -2832,22 +2832,22 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G68" s="5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C69" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D69" s="6" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G69" s="9" t="n">
@@ -2902,22 +2902,22 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
@@ -2937,22 +2937,22 @@
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D71" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G71" s="9" t="n">
@@ -2972,26 +2972,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G72" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D73" s="6" t="inlineStr">
@@ -3017,12 +3017,12 @@
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F73" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G73" s="9" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
@@ -3087,16 +3087,16 @@
       </c>
       <c r="E75" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F75" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G75" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
@@ -3112,22 +3112,22 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G76" s="5" t="n">
@@ -3147,22 +3147,22 @@
       </c>
       <c r="C77" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D77" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F77" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G77" s="9" t="n">
@@ -3182,26 +3182,24 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="G78" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
@@ -3212,22 +3210,22 @@
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D79" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E79" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>20/10/2025</t>
         </is>
       </c>
       <c r="F79" s="8" t="inlineStr">
@@ -3247,27 +3245,27 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>30/10/2025</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G80" s="5" t="n">
@@ -3282,29 +3280,31 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D81" s="6" t="n">
-        <v>2</v>
+          <t>anatomy</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F81" s="8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G81" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G82" s="5" t="n">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="C83" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D83" s="6" t="inlineStr">
@@ -3365,12 +3365,12 @@
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F83" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G83" s="9" t="n">
@@ -3390,22 +3390,22 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G84" s="5" t="n">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="C85" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D85" s="6" t="inlineStr">
@@ -3435,12 +3435,12 @@
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F85" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G85" s="9" t="n">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G86" s="5" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="C87" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D87" s="6" t="inlineStr">
@@ -3505,16 +3505,16 @@
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>22/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F87" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G87" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
@@ -3530,22 +3530,22 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G88" s="5" t="n">
@@ -3565,17 +3565,17 @@
       </c>
       <c r="C89" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D89" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E89" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="F89" s="8" t="inlineStr">
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G90" s="5" t="n">
@@ -3635,12 +3635,12 @@
       </c>
       <c r="C91" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D91" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E91" s="7" t="inlineStr">
@@ -3650,11 +3650,11 @@
       </c>
       <c r="F91" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G91" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -3680,12 +3680,12 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G92" s="5" t="n">
@@ -3705,26 +3705,24 @@
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
-        </is>
-      </c>
-      <c r="D93" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F93" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="G93" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
@@ -3735,12 +3733,12 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -3750,12 +3748,12 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G94" s="5" t="n">
@@ -3770,12 +3768,12 @@
       </c>
       <c r="B95" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C95" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D95" s="6" t="inlineStr">
@@ -3785,12 +3783,12 @@
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F95" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G95" s="9" t="n">
@@ -3805,27 +3803,27 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G96" s="5" t="n">
@@ -3840,29 +3838,31 @@
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="C97" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D97" s="6" t="n">
-        <v>2</v>
+          <t>biochemistry lab/cbl</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F97" s="8" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G97" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
@@ -3878,22 +3878,22 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G98" s="5" t="n">
@@ -3913,22 +3913,22 @@
       </c>
       <c r="C99" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D99" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E99" s="7" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F99" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G99" s="9" t="n">
@@ -3948,22 +3948,22 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G100" s="5" t="n">
@@ -3983,22 +3983,22 @@
       </c>
       <c r="C101" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D101" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E101" s="7" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F101" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G101" s="9" t="n">
@@ -4018,26 +4018,26 @@
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G102" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="C103" s="6" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D103" s="6" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="E103" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F103" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G103" s="9" t="n">
@@ -4088,22 +4088,22 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G104" s="5" t="n">
@@ -4123,22 +4123,22 @@
       </c>
       <c r="C105" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D105" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F105" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G105" s="9" t="n">
@@ -4158,12 +4158,12 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
@@ -4173,11 +4173,11 @@
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G106" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="C107" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D107" s="6" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="E107" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F107" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G107" s="9" t="n">
@@ -4228,26 +4228,24 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G108" s="5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
@@ -4258,12 +4256,12 @@
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C109" s="6" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D109" s="6" t="inlineStr">
@@ -4273,12 +4271,12 @@
       </c>
       <c r="E109" s="7" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F109" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G109" s="9" t="n">
@@ -4293,12 +4291,12 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>pharmacology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -4308,12 +4306,12 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G110" s="5" t="n">
@@ -4328,22 +4326,22 @@
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C111" s="6" t="inlineStr">
         <is>
-          <t>physiology</t>
+          <t>anatomy</t>
         </is>
       </c>
       <c r="D111" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="F111" s="8" t="inlineStr">
@@ -4363,29 +4361,31 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>2</v>
+          <t>biochemistry lab/cbl</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G112" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113">
@@ -4401,22 +4401,22 @@
       </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>biochemistry lab/cbl</t>
         </is>
       </c>
       <c r="D113" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E113" s="7" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="F113" s="8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G113" s="9" t="n">
@@ -4436,22 +4436,22 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>histology</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>23/10/2025</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="G114" s="5" t="n">
@@ -4471,17 +4471,17 @@
       </c>
       <c r="C115" s="6" t="inlineStr">
         <is>
-          <t>anatomy</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D115" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E115" s="7" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F115" s="8" t="inlineStr">
@@ -4506,22 +4506,22 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G116" s="5" t="n">
@@ -4541,26 +4541,26 @@
       </c>
       <c r="C117" s="6" t="inlineStr">
         <is>
-          <t>biochemistry lab/cbl</t>
+          <t>parasitology sgd/pos</t>
         </is>
       </c>
       <c r="D117" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E117" s="7" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F117" s="8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G117" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>histology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
@@ -4586,12 +4586,12 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>23/10/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G118" s="5" t="n">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="C119" s="6" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pathology lab/museum</t>
         </is>
       </c>
       <c r="D119" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E119" s="7" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>19/11/2025</t>
         </is>
       </c>
       <c r="F119" s="8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G119" s="9" t="n">
@@ -4646,22 +4646,22 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G120" s="5" t="n">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="C121" s="6" t="inlineStr">
         <is>
-          <t>parasitology sgd/pos</t>
+          <t>pharmacology</t>
         </is>
       </c>
       <c r="D121" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E121" s="7" t="inlineStr">
@@ -4696,11 +4696,11 @@
       </c>
       <c r="F121" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="G121" s="9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
+          <t>physiology</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
@@ -4726,12 +4726,12 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G122" s="5" t="n">
@@ -4751,163 +4751,23 @@
       </c>
       <c r="C123" s="6" t="inlineStr">
         <is>
-          <t>pathology lab/museum</t>
-        </is>
-      </c>
-      <c r="D123" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>physiology</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E123" s="7" t="inlineStr">
         <is>
-          <t>19/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="F123" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="G123" s="9" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>04/11/2025</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="G124" s="5" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="6" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B125" s="6" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C125" s="6" t="inlineStr">
-        <is>
-          <t>pharmacology</t>
-        </is>
-      </c>
-      <c r="D125" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E125" s="7" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="F125" s="8" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="G125" s="9" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>13/11/2025</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="G126" s="5" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="6" t="inlineStr">
-        <is>
-          <t>Year 2</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="C127" s="6" t="inlineStr">
-        <is>
-          <t>physiology</t>
-        </is>
-      </c>
-      <c r="D127" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" s="7" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="F127" s="8" t="inlineStr">
-        <is>
-          <t>13:00:00</t>
-        </is>
-      </c>
-      <c r="G127" s="9" t="n">
         <v>90</v>
       </c>
     </row>

--- a/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
+++ b/modules_schedules/Y2_B2526_Respiratory_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB4B7F7-DA2B-40AC-AA4A-94C09D1FD1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D70FD3A-5F72-4CB4-B74E-A482FB8DA8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,6 +200,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,9 +263,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -274,12 +274,23 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +604,8 @@
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15" style="13" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -610,10 +622,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -621,25 +633,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <v>120</v>
       </c>
     </row>
@@ -659,33 +671,33 @@
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>120</v>
       </c>
     </row>
@@ -705,33 +717,33 @@
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>120</v>
       </c>
     </row>
@@ -751,33 +763,33 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>120</v>
       </c>
     </row>
@@ -797,33 +809,33 @@
       <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>90</v>
       </c>
     </row>
@@ -843,33 +855,33 @@
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>120</v>
       </c>
     </row>
@@ -889,10 +901,10 @@
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>120</v>
       </c>
     </row>
@@ -912,33 +924,33 @@
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>120</v>
       </c>
     </row>
@@ -958,56 +970,56 @@
       <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1027,33 +1039,33 @@
       <c r="E19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1073,33 +1085,33 @@
       <c r="E21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1119,33 +1131,33 @@
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1165,33 +1177,33 @@
       <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="7">
         <v>90</v>
       </c>
     </row>
@@ -1211,33 +1223,33 @@
       <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>120</v>
       </c>
     </row>
@@ -1280,33 +1292,33 @@
       <c r="E30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1326,56 +1338,56 @@
       <c r="E32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>2</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1395,33 +1407,33 @@
       <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1441,33 +1453,33 @@
       <c r="E37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1487,33 +1499,33 @@
       <c r="E39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1533,33 +1545,33 @@
       <c r="E41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="A42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="7">
         <v>90</v>
       </c>
     </row>
@@ -1579,33 +1591,33 @@
       <c r="E43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="A44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1625,10 +1637,10 @@
       <c r="E45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>120</v>
       </c>
     </row>
@@ -1648,33 +1660,33 @@
       <c r="E46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>3</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1694,56 +1706,56 @@
       <c r="E48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>2</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="A50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1763,33 +1775,33 @@
       <c r="E51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1809,33 +1821,33 @@
       <c r="E53" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1855,33 +1867,33 @@
       <c r="E55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1901,33 +1913,33 @@
       <c r="E57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="7" t="s">
+      <c r="D58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="7">
         <v>90</v>
       </c>
     </row>
@@ -1947,33 +1959,33 @@
       <c r="E59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1993,10 +2005,10 @@
       <c r="E61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <v>120</v>
       </c>
     </row>
@@ -2016,33 +2028,33 @@
       <c r="E62" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>3</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2062,56 +2074,56 @@
       <c r="E64" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>2</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2131,33 +2143,33 @@
       <c r="E67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2177,33 +2189,33 @@
       <c r="E69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2223,33 +2235,33 @@
       <c r="E71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="D72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2269,33 +2281,33 @@
       <c r="E73" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="6" t="s">
+      <c r="A74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="D74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="7">
         <v>90</v>
       </c>
     </row>
@@ -2315,33 +2327,33 @@
       <c r="E75" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2361,10 +2373,10 @@
       <c r="E77" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <v>120</v>
       </c>
     </row>
@@ -2384,33 +2396,33 @@
       <c r="E78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>3</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2430,56 +2442,56 @@
       <c r="E80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="A81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>2</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="6" t="s">
+      <c r="A82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2499,33 +2511,33 @@
       <c r="E83" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="A84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2545,33 +2557,33 @@
       <c r="E85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="A86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2591,33 +2603,33 @@
       <c r="E87" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="7" t="s">
+      <c r="D88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2637,33 +2649,33 @@
       <c r="E89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="6" t="s">
+      <c r="A90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="7" t="s">
+      <c r="D90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="7">
         <v>90</v>
       </c>
     </row>
@@ -2683,33 +2695,33 @@
       <c r="E91" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="6" t="s">
+      <c r="A92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2729,10 +2741,10 @@
       <c r="E93" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="4">
         <v>120</v>
       </c>
     </row>
@@ -2752,33 +2764,33 @@
       <c r="E94" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="A95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>3</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2798,56 +2810,56 @@
       <c r="E96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="A97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="5">
         <v>2</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="A98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="7" t="s">
+      <c r="D98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2867,33 +2879,33 @@
       <c r="E99" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="6" t="s">
+      <c r="A100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2913,33 +2925,33 @@
       <c r="E101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="A102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="7">
         <v>120</v>
       </c>
     </row>
@@ -2959,33 +2971,33 @@
       <c r="E103" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="A104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="D104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3005,33 +3017,33 @@
       <c r="E105" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" s="6" t="s">
+      <c r="A106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="D106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="9">
+      <c r="G106" s="7">
         <v>90</v>
       </c>
     </row>
@@ -3051,33 +3063,33 @@
       <c r="E107" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" s="6" t="s">
+      <c r="A108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G108" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3097,10 +3109,10 @@
       <c r="E109" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="4">
         <v>120</v>
       </c>
     </row>
@@ -3120,33 +3132,33 @@
       <c r="E110" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="A111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>3</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G111" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3166,56 +3178,56 @@
       <c r="E112" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="5">
         <v>2</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G113" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="6" t="s">
+      <c r="A114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" s="7" t="s">
+      <c r="D114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G114" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3235,33 +3247,33 @@
       <c r="E115" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="A116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G116" s="9">
+      <c r="G116" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3281,33 +3293,33 @@
       <c r="E117" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="6" t="s">
+      <c r="A118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="9">
+      <c r="G118" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3327,33 +3339,33 @@
       <c r="E119" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="A120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="7" t="s">
+      <c r="D120" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G120" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3373,33 +3385,33 @@
       <c r="E121" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="6" t="s">
+      <c r="A122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="7" t="s">
+      <c r="D122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G122" s="9">
+      <c r="G122" s="7">
         <v>90</v>
       </c>
     </row>
@@ -3419,33 +3431,33 @@
       <c r="E123" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="A124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G124" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3465,10 +3477,10 @@
       <c r="E125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="4">
         <v>120</v>
       </c>
     </row>
@@ -3488,33 +3500,33 @@
       <c r="E126" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" s="6" t="s">
+      <c r="A127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="5">
         <v>3</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="9">
+      <c r="G127" s="7">
         <v>120</v>
       </c>
     </row>
@@ -3534,33 +3546,33 @@
       <c r="E128" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="6" t="s">
+      <c r="A129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="5">
         <v>2</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G129" s="9">
+      <c r="G129" s="7">
         <v>90</v>
       </c>
     </row>
